--- a/00Temporal/operativos/Quitumbe.xlsx
+++ b/00Temporal/operativos/Quitumbe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>ZONA QUITUMBE</t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t xml:space="preserve">Aprobado por: </t>
+  </si>
+  <si>
+    <t>f inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f fin </t>
+  </si>
+  <si>
+    <t>complejidad</t>
+  </si>
+  <si>
+    <t>ordenanza</t>
+  </si>
+  <si>
+    <t>zonal</t>
+  </si>
+  <si>
+    <t>responsable</t>
   </si>
 </sst>
 </file>
@@ -447,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +567,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,7 +959,8 @@
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
     <col min="7" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="256" width="11.42578125" style="1"/>
+    <col min="9" max="10" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="256" width="11.42578125" style="1"/>
     <col min="257" max="257" width="3" style="1" customWidth="1"/>
     <col min="258" max="258" width="13.7109375" style="1" customWidth="1"/>
     <col min="259" max="260" width="10.7109375" style="1" customWidth="1"/>
@@ -1444,7 +1467,7 @@
     <col min="16137" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
@@ -1458,7 +1481,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -1468,7 +1491,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="B3" s="26" t="s">
         <v>1</v>
@@ -1488,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="B4" s="26" t="s">
         <v>6</v>
@@ -1504,7 +1527,7 @@
       <c r="G4" s="31"/>
       <c r="H4" s="30"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="34"/>
       <c r="C5" s="4" t="s">
@@ -1517,8 +1540,26 @@
       <c r="F5" s="29"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -1543,8 +1584,26 @@
       <c r="H6" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="37">
+        <v>43011.583333333336</v>
+      </c>
+      <c r="J6" s="37">
+        <v>43011.75</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7</v>
+      </c>
+      <c r="N6" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -1569,8 +1628,26 @@
       <c r="H7" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="37">
+        <v>43013.416666666664</v>
+      </c>
+      <c r="J7" s="37">
+        <v>43013.583333333336</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>3</v>
       </c>
@@ -1595,8 +1672,26 @@
       <c r="H8" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="38">
+        <v>43019.583333333336</v>
+      </c>
+      <c r="J8" s="38">
+        <v>43019.75</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2</v>
+      </c>
+      <c r="L8" s="13">
+        <v>2</v>
+      </c>
+      <c r="M8" s="13">
+        <v>7</v>
+      </c>
+      <c r="N8" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>4</v>
       </c>
@@ -1621,8 +1716,26 @@
       <c r="H9" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="37">
+        <v>43022.541666666664</v>
+      </c>
+      <c r="J9" s="37">
+        <v>43022.833333333336</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>5</v>
       </c>
@@ -1647,8 +1760,26 @@
       <c r="H10" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="37">
+        <v>43020.666666666664</v>
+      </c>
+      <c r="J10" s="37">
+        <v>43020.833333333336</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -1673,8 +1804,26 @@
       <c r="H11" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="37">
+        <v>43026.625</v>
+      </c>
+      <c r="J11" s="37">
+        <v>43026.791666666664</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>7</v>
       </c>
@@ -1699,8 +1848,26 @@
       <c r="H12" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="37">
+        <v>43028.791666666664</v>
+      </c>
+      <c r="J12" s="37">
+        <v>43028</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>8</v>
       </c>
@@ -1725,8 +1892,26 @@
       <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="37">
+        <v>43030.375</v>
+      </c>
+      <c r="J13" s="37">
+        <v>43030.666666666664</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7</v>
+      </c>
+      <c r="N13" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>9</v>
       </c>
@@ -1751,8 +1936,26 @@
       <c r="H14" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I14" s="37">
+        <v>43032.416666666664</v>
+      </c>
+      <c r="J14" s="37">
+        <v>43032.583333333336</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -1777,8 +1980,26 @@
       <c r="H15" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="37">
+        <v>43033.5</v>
+      </c>
+      <c r="J15" s="37">
+        <v>43033.666666666664</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
         <v>15</v>
@@ -1789,6 +2010,8 @@
       <c r="H16" s="19">
         <v>8</v>
       </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="5"/>
